--- a/documents/Week 9/StatusTracker-2.xlsx
+++ b/documents/Week 9/StatusTracker-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="139">
   <si>
     <t>Using the Status tracker</t>
   </si>
@@ -4894,8 +4894,8 @@
   </sheetPr>
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6216,9 +6216,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="str">
-        <f aca="false">Team_Status!A37</f>
-        <v>Week 11</v>
+      <c r="A39" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -6549,9 +6548,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="str">
-        <f aca="false">Team_Status!A46</f>
-        <v>Week 13</v>
+      <c r="A48" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -6573,11 +6571,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="inlineStr">
-        <f aca="false">Team_Status!A47</f>
-        <is>
-          <t/>
-        </is>
+      <c r="A49" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -6599,11 +6594,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="inlineStr">
-        <f aca="false">Team_Status!A48</f>
-        <is>
-          <t/>
-        </is>
+      <c r="A50" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -6625,11 +6617,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="inlineStr">
-        <f aca="false">Team_Status!A49</f>
-        <is>
-          <t/>
-        </is>
+      <c r="A51" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
